--- a/reverseprimer-v3_36.xlsx
+++ b/reverseprimer-v3_36.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_36" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R3361-GCACTTCCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCACTTCCAAGTCTCGTGGGCTCGG</t>
+    <t>R3361-TCGATGCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGATGCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R3362-GAACGACTCT</t>
+    <t>R3362-TAGTTCGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTTCGTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>R3363-CATCTGAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCTGAGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>R3364-GCTCAAGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTCAAGCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>R3365-CTCTGTGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTGTGTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>R3366-CGTCATGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTCATGCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>R3367-ATCTCGACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTCGACTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>R3368-GAAGACACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGACACCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>R3369-CTCAACGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAACGTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>R3370-GTTGGAGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGGAGCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>R3371-TGAGCACCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGCACCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>R3372-GGAGAAGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAGAAGATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>R3373-CATGCTTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGCTTCTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>R3374-AGGTACGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTACGTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>R3375-TGTCAGCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCAGCAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>R3376-AAGTGTTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTGTTCTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>R3377-TGACTCTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACTCTCCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>R3378-TGTTCACCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTCACCACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>R3379-CTCGATGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCGATGTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>R3380-ACTAGTCCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTAGTCCTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>R3381-AAGTTGCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTTGCTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>R3382-AAGAGGTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAGGTCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>R3383-TACTCTCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTCTCAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>R3384-GTAGTCTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGTCTTCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>R3385-AGAAGGAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAAGGAAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R3386-GTGAGCACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAGCACTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>R3387-GCAAGTCCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAAGTCCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>R3388-AGAACGTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAACGTGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>R3389-CAGTTCCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTTCCAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R3390-ACACCTGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACCTGTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R3391-CCAGTCTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCAGTCTTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R3392-ACTGGAGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGGAGTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R3393-GGTGAAGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTGAAGGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R3394-CAACAGTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACAGTTCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R3395-ACACTCCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACTCCTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R3396-ATCTGCAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTGCAGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R3397-CTTGTCAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGTCAGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R3398-GAACGACTCT</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATGAACGACTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>R3363-ATCAGTGCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAGTGCACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>R3364-CGTTGAGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTTGAGATGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>R3365-GTTCCTGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCCTGTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>R3366-ACACGTGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACGTGAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>R3367-TAGCACGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCACGTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>R3368-TGTCGTGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCGTGCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>R3369-CTCCATCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCCATCAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>R3370-ACAGACATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGACATCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>R3371-TTCTGCTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTGCTAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>R3372-CTCAACACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAACACGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>R3373-GAGTGTACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTGTACACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>R3374-GAACTCAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACTCAACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>R3375-TCTCAGTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCAGTCCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>R3376-TGACAGGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACAGGACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>R3377-CTTCAAGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCAAGTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>R3378-CCTGCATCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTGCATCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>R3379-AGGTAGCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTAGCAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>R3380-TCGAACAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGAACAAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>R3381-AGTCCTCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCCTCAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>R3382-GTGAGCTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGAGCTGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>R3383-TGAGAGCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGAGCTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>R3384-GCTGATGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTGATGCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>R3385-GAGACGTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGACGTCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>R3386-GGAACGTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAACGTACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>R3387-AGTGTCTAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGTCTAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>R3388-CTACTCCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACTCCAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>R3389-CCTTGTCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTGTCTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>R3390-AGGTGATGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTGATGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R3391-TCCTGTACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTGTACTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R3392-ACAGTTCGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTTCGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R3393-TGACGTGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACGTGATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R3394-AAGTCCAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTCCAAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R3395-TTCGAAGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGAAGGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R3396-TACTTGCACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTTGCACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R3397-TTCGAACTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGAACTGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R3398-GACCTTCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACCTTCTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R3399-GAGTACTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTACTACAGTCTCGTGGGCTCGG</t>
+    <t>R3399-ACCTTGATGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTTGATGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R3400-CTACTGACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACTGACACGTCTCGTGGGCTCGG</t>
+    <t>R3400-CGACTACTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGACTACTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R3401-TTCCACAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCACAGGTGTCTCGTGGGCTCGG</t>
+    <t>R3401-ACTCGTCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCGTCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R3402-AACTACCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTACCACAGTCTCGTGGGCTCGG</t>
+    <t>R3402-GAGAGAGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGAGAGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R3403-ACATCGAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATCGAGATGTCTCGTGGGCTCGG</t>
+    <t>R3403-GACTACGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTACGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R3404-CTACTTGAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACTTGAGGGTCTCGTGGGCTCGG</t>
+    <t>R3404-TCAGGTGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGGTGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R3405-ATCTCAGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTCAGACAGTCTCGTGGGCTCGG</t>
+    <t>R3405-TACTACTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTACTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R3406-TGGTTCTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTTCTGGTGTCTCGTGGGCTCGG</t>
+    <t>R3406-CTACACTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACACTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R3407-GTAGCTGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGCTGATCGTCTCGTGGGCTCGG</t>
+    <t>R3407-GGAAGGTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAAGGTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R3408-GAACCTGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACCTGTTGGTCTCGTGGGCTCGG</t>
+    <t>R3408-TCTTCACATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTCACATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R3409-TACCACAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCACAGACGTCTCGTGGGCTCGG</t>
+    <t>R3409-CATCTACGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCTACGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R3410-GTGTCTGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTCTGGTTGTCTCGTGGGCTCGG</t>
+    <t>R3410-CGTAGACAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTAGACAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R3411-CTGAAGGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGAAGGACAGTCTCGTGGGCTCGG</t>
+    <t>R3411-AGTCTCATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCTCATCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R3412-GAGTGAAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTGAAGCTGTCTCGTGGGCTCGG</t>
+    <t>R3412-AAGATGTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGATGTGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R3413-ACAGGAGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGGAGATCGTCTCGTGGGCTCGG</t>
+    <t>R3413-CTCAAGAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAAGAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R3414-TGAGTCTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGTCTAGCGTCTCGTGGGCTCGG</t>
+    <t>R3414-TAGCAACTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCAACTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R3415-TGGTAGTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTAGTAGAGTCTCGTGGGCTCGG</t>
+    <t>R3415-AGTGTACCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGTACCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R3416-AGAGATGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGATGAGAGTCTCGTGGGCTCGG</t>
+    <t>R3416-TCATCACAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATCACAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R3417-AACTAGCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTAGCATCGTCTCGTGGGCTCGG</t>
+    <t>R3417-TGAACGAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAACGAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R3418-CCTACAAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTACAAGCAGTCTCGTGGGCTCGG</t>
+    <t>R3418-GGTAGGTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTAGGTACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R3419-CTCAGACAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAGACAAGGTCTCGTGGGCTCGG</t>
+    <t>R3419-TGACACTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACACTTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R3420-TCCTTCAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTTCAGGAGTCTCGTGGGCTCGG</t>
+    <t>R3420-GAACAGAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACAGAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R3421-GAGCTTGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGCTTGTAGGTCTCGTGGGCTCGG</t>
+    <t>R3421-GACGTTCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACGTTCAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R3422-TGAGAGTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGAGTCTGGTCTCGTGGGCTCGG</t>
+    <t>R3422-AGTGACACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGACACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R3423-TGGAGAGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGAGAGATCGTCTCGTGGGCTCGG</t>
+    <t>R3423-TACGTTCTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGTTCTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R3424-GTTGTGTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGTGTGACGTCTCGTGGGCTCGG</t>
+    <t>R3424-GTCAAGTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCAAGTGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R3425-AACCTACGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTACGAGGTCTCGTGGGCTCGG</t>
+    <t>R3425-TAGAGCTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAGCTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R3426-TCCAGCTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAGCTGTAGTCTCGTGGGCTCGG</t>
+    <t>R3426-ATGACAGGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGACAGGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R3427-TCATGTCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATGTCATGGTCTCGTGGGCTCGG</t>
+    <t>R3427-GTCCATCGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCCATCGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R3428-GTAGAAGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGAAGGAAGTCTCGTGGGCTCGG</t>
+    <t>R3428-AGTGCATCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGCATCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R3429-GAGCACTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGCACTAGTGTCTCGTGGGCTCGG</t>
+    <t>R3429-GAGCTAGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGCTAGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R3430-ATCGTGACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGTGACTAGTCTCGTGGGCTCGG</t>
+    <t>R3430-TCTGAAGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGAAGCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R3431-GTGAGTTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGAGTTCTGGTCTCGTGGGCTCGG</t>
+    <t>R3431-GAACTCTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACTCTGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R3432-TTCACCACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCACCACACGTCTCGTGGGCTCGG</t>
+    <t>R3432-CTTGGAGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGGAGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R3433-ATGGTTCCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGTTCCACGTCTCGTGGGCTCGG</t>
+    <t>R3433-TCGATCTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGATCTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R3434-TAGCAGCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCAGCTCAGTCTCGTGGGCTCGG</t>
+    <t>R3434-AAGACTTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACTTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R3435-ACAGCAAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGCAAGTAGTCTCGTGGGCTCGG</t>
+    <t>R3435-ACGATCAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGATCAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R3436-GTACTCCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACTCCTTGGTCTCGTGGGCTCGG</t>
+    <t>R3436-ACGTCAGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTCAGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R3437-TCTGACTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGACTGCAGTCTCGTGGGCTCGG</t>
+    <t>R3437-TTGACTACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGACTACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R3438-CGAAGAGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAAGAGAGTGTCTCGTGGGCTCGG</t>
+    <t>R3438-TGCTACAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTACAACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R3439-GTGTTCGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTTCGATGGTCTCGTGGGCTCGG</t>
+    <t>R3439-GCTCTTGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTCTTGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R3440-TGTCACTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCACTCTAGTCTCGTGGGCTCGG</t>
+    <t>R3440-CTCGAAGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCGAAGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R3441-TGTCACACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCACACATGTCTCGTGGGCTCGG</t>
+    <t>R3441-ATGCATCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCATCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R3442-AGAACCTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAACCTCAGGTCTCGTGGGCTCGG</t>
+    <t>R3442-AGAGAGATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGAGATGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R3443-GACCTTCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACCTTCATCGTCTCGTGGGCTCGG</t>
+    <t>R3443-AGAGGAGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGGAGCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R3444-ACACAAGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACAAGACAGTCTCGTGGGCTCGG</t>
+    <t>R3444-CTTCAAGAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCAAGAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R3445-AGAACTGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAACTGCATGTCTCGTGGGCTCGG</t>
+    <t>R3445-CATGCAAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGCAAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R3446-AAGGTTCAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGTTCAGCGTCTCGTGGGCTCGG</t>
+    <t>R3446-TGCAGTAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCAGTAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R3447-ACGTCTACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTCTACTTGTCTCGTGGGCTCGG</t>
+    <t>R3447-AGAGTCGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGTCGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R3448-ACAAGAACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGAACCAGTCTCGTGGGCTCGG</t>
+    <t>R3448-TGCTAGACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTAGACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R3449-TGCACCTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCACCTTCAGTCTCGTGGGCTCGG</t>
+    <t>R3449-GTGAAGCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAAGCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R3450-TTCTGAAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTGAAGCAGTCTCGTGGGCTCGG</t>
+    <t>R3450-TTCCTTCGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCTTCGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R3451-ACTCAGTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCAGTCGTGTCTCGTGGGCTCGG</t>
+    <t>R3451-GATCAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCAGACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R3452-TCACGTCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACGTCAGTGTCTCGTGGGCTCGG</t>
+    <t>R3452-ACTTCTGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTCTGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R3453-GTACCTACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACCTACACGTCTCGTGGGCTCGG</t>
+    <t>R3453-GTGAAGACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAAGACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R3454-TTGATGCACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGATGCACGGTCTCGTGGGCTCGG</t>
+    <t>R3454-CTGAGTACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGAGTACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R3455-ACAGTGGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTGGATGGTCTCGTGGGCTCGG</t>
+    <t>R3455-GCTGCTTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTGCTTGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R3456-CAGGAACTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGGAACTTGGTCTCGTGGGCTCGG</t>
+    <t>R3456-TGTAGGAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTAGGAACAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
